--- a/result/mvo/evaluation.xlsx
+++ b/result/mvo/evaluation.xlsx
@@ -82,10 +82,10 @@
     <t>20110314-20110926</t>
   </si>
   <si>
-    <t>20110314-20120612</t>
-  </si>
-  <si>
-    <t>20101019-20120521</t>
+    <t>20110314-20120608</t>
+  </si>
+  <si>
+    <t>20101019-20120518</t>
   </si>
   <si>
     <t>20130528-20131120</t>
@@ -519,13 +519,13 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>3.590090224393427</v>
+        <v>3.626528212207414</v>
       </c>
       <c r="C2">
-        <v>2.057421708021123</v>
+        <v>2.071326522278616</v>
       </c>
       <c r="D2">
-        <v>3.874900160775763</v>
+        <v>3.883876237714357</v>
       </c>
       <c r="E2">
         <v>1.750483676714309</v>
@@ -548,13 +548,13 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>-0.6209224604781016</v>
+        <v>-0.5948023055019624</v>
       </c>
       <c r="C3">
-        <v>-3.07394900980944</v>
+        <v>-3.047254343361361</v>
       </c>
       <c r="D3">
-        <v>-1.508457360466819</v>
+        <v>-1.477386164751249</v>
       </c>
       <c r="E3">
         <v>7.060658285552779</v>
@@ -580,13 +580,13 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>5.811415854773982</v>
+        <v>5.853488631903625</v>
       </c>
       <c r="C4">
-        <v>6.127678353254185</v>
+        <v>6.146366209170395</v>
       </c>
       <c r="D4">
-        <v>6.128799652751549</v>
+        <v>6.146221313612688</v>
       </c>
       <c r="E4">
         <v>2.898996219404526</v>
@@ -612,13 +612,13 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-0.4963941945328343</v>
+        <v>-0.4870725372490337</v>
       </c>
       <c r="C5">
-        <v>13.75247976151313</v>
+        <v>13.77098914047652</v>
       </c>
       <c r="D5">
-        <v>7.644481280397786</v>
+        <v>7.661481474161236</v>
       </c>
       <c r="E5">
         <v>-3.022916024628619</v>
@@ -644,13 +644,13 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>14.33421537075208</v>
+        <v>14.3436972699643</v>
       </c>
       <c r="C6">
-        <v>18.01913536255508</v>
+        <v>18.03352770881901</v>
       </c>
       <c r="D6">
-        <v>18.99027203934473</v>
+        <v>19.00589021621713</v>
       </c>
       <c r="E6">
         <v>11.26986257429179</v>
@@ -676,13 +676,13 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>10.02025881508586</v>
+        <v>10.02377077019678</v>
       </c>
       <c r="C7">
-        <v>10.01970424207841</v>
+        <v>10.02350982335991</v>
       </c>
       <c r="D7">
-        <v>10.01982000838511</v>
+        <v>10.0237401482647</v>
       </c>
       <c r="E7">
         <v>8.454480854025647</v>
@@ -708,13 +708,13 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>2.87543209460619</v>
+        <v>2.897307931183368</v>
       </c>
       <c r="C8">
-        <v>1.125144489709839</v>
+        <v>1.158302136040068</v>
       </c>
       <c r="D8">
-        <v>2.381901775289963</v>
+        <v>2.414725093881853</v>
       </c>
       <c r="E8">
         <v>2.271025397411308</v>
@@ -740,13 +740,13 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>6.69791342032795</v>
+        <v>6.708989633125362</v>
       </c>
       <c r="C9">
-        <v>8.624899827489774</v>
+        <v>8.643063042971754</v>
       </c>
       <c r="D9">
-        <v>8.527359624926746</v>
+        <v>8.542696588289678</v>
       </c>
       <c r="E9">
         <v>-1.89828589502653</v>
@@ -772,13 +772,13 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>5.063417896483191</v>
+        <v>5.091325974207095</v>
       </c>
       <c r="C10">
-        <v>2.316340009622442</v>
+        <v>2.335914678573281</v>
       </c>
       <c r="D10">
-        <v>2.437489674487203</v>
+        <v>2.459188511470289</v>
       </c>
       <c r="E10">
         <v>9.178378355313521</v>
@@ -804,13 +804,13 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>9.969648435355239</v>
+        <v>9.988737584800568</v>
       </c>
       <c r="C11">
-        <v>8.304690287508265</v>
+        <v>8.339471266218656</v>
       </c>
       <c r="D11">
-        <v>8.328210249694523</v>
+        <v>8.349416712434143</v>
       </c>
       <c r="E11">
         <v>4.136788417338955</v>
@@ -836,13 +836,13 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>6.846167799742209</v>
+        <v>6.848197767518815</v>
       </c>
       <c r="C12">
-        <v>9.988160023485992</v>
+        <v>10.01958178612619</v>
       </c>
       <c r="D12">
-        <v>6.967546205184139</v>
+        <v>6.975341467351903</v>
       </c>
       <c r="E12">
         <v>2.753653272676471</v>
@@ -868,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>81.12794272150443</v>
+        <v>81.47684245935267</v>
       </c>
       <c r="C13">
-        <v>102.1764552681936</v>
+        <v>102.606146489965</v>
       </c>
       <c r="D13">
-        <v>96.96921530556214</v>
+        <v>97.31798992394785</v>
       </c>
       <c r="E13">
         <v>51.74061088523165</v>
@@ -900,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>5.757887032503661</v>
+        <v>5.777068795775508</v>
       </c>
       <c r="C14">
-        <v>6.859295283061972</v>
+        <v>6.8806778427974</v>
       </c>
       <c r="D14">
-        <v>6.596844194423257</v>
+        <v>6.614618063905553</v>
       </c>
       <c r="E14">
         <v>4.008106023502811</v>
@@ -932,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>3.231426076728114</v>
+        <v>3.231603209268093</v>
       </c>
       <c r="C15">
-        <v>4.420757056991931</v>
+        <v>4.421267944649913</v>
       </c>
       <c r="D15">
-        <v>3.904698504004962</v>
+        <v>3.905193398558356</v>
       </c>
       <c r="E15">
         <v>2.175313092174764</v>
@@ -964,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>5.434469717881225</v>
+        <v>5.404747823938583</v>
       </c>
       <c r="C16">
-        <v>6.548799572168982</v>
+        <v>6.536274108925952</v>
       </c>
       <c r="D16">
-        <v>5.896395435286427</v>
+        <v>5.874352629782774</v>
       </c>
       <c r="E16">
         <v>5.851804491363096</v>
@@ -1031,10 +1031,10 @@
         <v>490</v>
       </c>
       <c r="C18">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D18">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E18">
         <v>615</v>
@@ -1092,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>1.317608749366716</v>
+        <v>1.32347202661106</v>
       </c>
       <c r="C20">
-        <v>1.212275179670383</v>
+        <v>1.216971288107406</v>
       </c>
       <c r="D20">
-        <v>1.305277132532107</v>
+        <v>1.309662947678559</v>
       </c>
       <c r="E20">
         <v>1.152933221062604</v>
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>0.7834819044632081</v>
+        <v>0.7913393559078511</v>
       </c>
       <c r="C21">
-        <v>0.8183505066771064</v>
+        <v>0.8231900061304089</v>
       </c>
       <c r="D21">
-        <v>0.864385337080427</v>
+        <v>0.8706544058207311</v>
       </c>
       <c r="E21">
         <v>0.4285965410413923</v>
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>20.85378729232576</v>
+        <v>20.94730510631103</v>
       </c>
       <c r="C22">
-        <v>18.86666999269774</v>
+        <v>18.93668438011245</v>
       </c>
       <c r="D22">
-        <v>20.62486362922239</v>
+        <v>20.68945437378503</v>
       </c>
       <c r="E22">
         <v>18.51222630216838</v>
